--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1602690.766694309</v>
+        <v>1688323.53690612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797161</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5843149.3754665</v>
+        <v>6289743.71313851</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>184.515494921068</v>
+        <v>104.3162867800979</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -820,13 +822,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>141.3509401177971</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039832979</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>399.1147058748265</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,10 +913,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>131.6793655011337</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>148.7223419617671</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>184.5154949210677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>30.5520285408729</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>101.7706336613758</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>157.882488064989</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800597</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>298.114335416925</v>
+        <v>21.87520451048285</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170485</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1591,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494637</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>235.4177086710523</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1143223529988</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>30.80549757377258</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573316</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2020,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>266.8594808797418</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2144,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2242,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704886</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>240.9739924675036</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>157.8824880649885</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2476,16 +2478,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>35.75633396116255</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>71.95361350212661</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>35.20092700998732</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>128.5829343862774</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>74.27355480885183</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>122.6391170798906</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3433,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3472,13 +3474,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>46.22530271040065</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>166.3197703738366</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3746,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>196.0929707461067</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>233.7564114779313</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>90.32734763589843</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>84.13856947272606</v>
+        <v>213.7984441674435</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>64.34965323462522</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>153.2006427344288</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1674.602188492498</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.459715675921</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D2" t="n">
-        <v>800.5499308503654</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7751860086605</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
         <v>342.9481604582723</v>
@@ -4328,19 +4330,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2483.681538632369</v>
+        <v>2481.038965968701</v>
       </c>
       <c r="U2" t="n">
-        <v>2483.681538632369</v>
+        <v>2481.038965968701</v>
       </c>
       <c r="V2" t="n">
-        <v>2121.064588566196</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W2" t="n">
-        <v>2120.249538017633</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.147478637348</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y2" t="n">
-        <v>1696.861354937001</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>377.9595414948409</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L3" t="n">
-        <v>938.6281453713194</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M3" t="n">
-        <v>938.6281453713194</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N3" t="n">
-        <v>938.6281453713194</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O3" t="n">
-        <v>1599.468199913098</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762.8950539462403</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>590.3333424294652</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>590.3333424294652</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4486,13 +4488,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431415</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1693.062784852648</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.133343351119</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.7136726652275</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1640.914249164595</v>
+        <v>1515.838921374201</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.812180388422</v>
+        <v>1077.696448557624</v>
       </c>
       <c r="D5" t="n">
-        <v>1574.94279960327</v>
+        <v>1045.827067772473</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.796632052941</v>
+        <v>1016.092726971172</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>588.22529738038</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>186.8274660036438</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4568,22 +4570,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>518.3865980530361</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1179.226652594814</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678371</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2087.376649238293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>2086.56159868973</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.459539309445</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y5" t="n">
-        <v>1663.173415609098</v>
+        <v>1538.098087818705</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308645</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N6" t="n">
-        <v>1401.144998772643</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1028.432740781182</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>855.8710292644067</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>689.9930364659294</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>520.2350327166666</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>343.5279786784229</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4750,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1693.062784852648</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="X7" t="n">
-        <v>1447.671030186061</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1220.251359500169</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>1018.798599434575</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>986.9292186494235</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>957.1948778481228</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>529.3274482573306</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4802,13 +4804,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
         <v>1293.567921177998</v>
@@ -4838,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2639.200191541657</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>2220.057728120968</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2545.844385276825</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2545.844385276825</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>2084.044929341546</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>785.1194205777972</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>483.9938292475699</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>483.9938292475699</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677765</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677765</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096956</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1880.509478614942</v>
+        <v>2405.726147295684</v>
       </c>
       <c r="M11" t="n">
-        <v>1880.509478614942</v>
+        <v>3562.773982506235</v>
       </c>
       <c r="N11" t="n">
-        <v>1880.509478614942</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="O11" t="n">
-        <v>2259.821196880288</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="P11" t="n">
-        <v>2259.821196880288</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772709</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183742</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763053</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1211.418991062706</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>3531.436949455166</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>3424.980488291808</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>3329.890199438361</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>3235.769784765315</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>3152.385946381477</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>3067.000856647661</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677765</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677765</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="K12" t="n">
-        <v>213.064991536</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="L12" t="n">
-        <v>907.6291872886234</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="M12" t="n">
-        <v>907.6291872886234</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="N12" t="n">
-        <v>907.6291872886234</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="O12" t="n">
-        <v>907.6291872886234</v>
+        <v>3868.781799463484</v>
       </c>
       <c r="P12" t="n">
-        <v>1602.193383041247</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>4625.049528391065</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>4494.870884721667</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>4318.534337721635</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>4119.416819783634</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>3934.094065516828</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>3779.226629755708</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>3652.740850534929</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>593.0585255576149</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1805327591376</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4225290098748</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>80.71547497163104</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677765</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677765</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1791.820831731407</v>
+        <v>2324.430227182453</v>
       </c>
       <c r="C14" t="n">
-        <v>1353.67835891483</v>
+        <v>1886.287754365876</v>
       </c>
       <c r="D14" t="n">
-        <v>917.7685740892748</v>
+        <v>1450.377969540321</v>
       </c>
       <c r="E14" t="n">
-        <v>483.99382924757</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677765</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677765</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677765</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677765</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5387406219839</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5387406219839</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5387406219839</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127231</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085826</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4345.630789443537</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838882</v>
+        <v>3983.013839377363</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838882</v>
+        <v>3578.158384788397</v>
       </c>
       <c r="X14" t="n">
-        <v>2626.406525916661</v>
+        <v>3159.015921367708</v>
       </c>
       <c r="Y14" t="n">
-        <v>2218.120402216315</v>
+        <v>2750.729797667361</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="L15" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="M15" t="n">
-        <v>56.12639965677765</v>
+        <v>1280.238751550125</v>
       </c>
       <c r="N15" t="n">
-        <v>56.12639965677765</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O15" t="n">
-        <v>484.0630267508874</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>989.5941704463471</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>817.032458929572</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>651.1544661310948</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>481.396462381832</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141399</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394504</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264934</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851226</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X16" t="n">
-        <v>1408.832459851226</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1181.412789165334</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5515,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2758.053686176684</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N17" t="n">
         <v>2758.053686176684</v>
@@ -5540,7 +5542,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5607,10 +5609,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2313.799635050031</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>2026.844126920461</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5792,10 +5794,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657332</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405572</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U22" t="n">
-        <v>2292.381813755403</v>
+        <v>2316.271008272077</v>
       </c>
       <c r="V22" t="n">
-        <v>2005.426305625833</v>
+        <v>2029.315500142507</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728799</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062211</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.47767037632</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>1039.550377927472</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2114.610344180331</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3271.658179390882</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1004.611946844417</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>832.0502353276421</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D25" t="n">
-        <v>666.1722425291648</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E25" t="n">
-        <v>496.4142387799021</v>
+        <v>620.5788526445006</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>443.8717986062568</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>278.2805236320845</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>138.378349322459</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6181,16 +6183,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1941.268395329592</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1669.241990915884</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1423.850236249296</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1196.430565563404</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6227,13 +6229,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
         <v>4132.862346968674</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3575.440564248063</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>3402.878852731288</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>3237.000859932811</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>3067.242856183548</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>5077.485521609701</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>3994.678853652942</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3767.25918296705</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6470,19 +6472,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4400.966644204577</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4947.465430163173</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,13 +6545,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6710,16 +6712,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>4293.318847059783</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>4293.318847059783</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>4293.318847059783</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>4293.318847059783</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1083.7810821021</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6895,13 +6897,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1748.411126173566</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1503.019371506979</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1275.599700821087</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6941,7 +6943,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
         <v>1463.16863798718</v>
@@ -6962,13 +6964,13 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
@@ -7011,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>751.6989919312866</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>666.4589603534698</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>500.5809675549925</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7120,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2650.81040391895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2404.930957497405</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7163,10 +7165,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,43 +7180,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7366,16 +7368,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.949044954127</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1818.78035105678</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C41" t="n">
-        <v>1380.637878240203</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D41" t="n">
-        <v>944.7280934146477</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E41" t="n">
-        <v>944.7280934146477</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F41" t="n">
-        <v>746.6543855902975</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G41" t="n">
-        <v>345.2565542135613</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.945282862319</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.945282862319</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="N41" t="n">
-        <v>1185.945282862319</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="O41" t="n">
-        <v>1880.509478614942</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="P41" t="n">
-        <v>2575.073674367565</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.25275571192</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U41" t="n">
-        <v>2586.25275571192</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V41" t="n">
-        <v>2223.635805645747</v>
+        <v>3889.44597496513</v>
       </c>
       <c r="W41" t="n">
-        <v>1818.78035105678</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X41" t="n">
-        <v>1818.78035105678</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y41" t="n">
-        <v>1818.78035105678</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1135.184560268659</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>962.6228487518839</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>615.9681226433605</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>524.7283775565944</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>348.0213235183506</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2071.841008753834</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.841008753834</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.814604340125</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.422849673538</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.003178987646</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1877.226075117122</v>
+        <v>2447.237176554638</v>
       </c>
       <c r="C44" t="n">
-        <v>1439.083602300545</v>
+        <v>2009.094703738062</v>
       </c>
       <c r="D44" t="n">
-        <v>1003.173817474989</v>
+        <v>1573.184918912506</v>
       </c>
       <c r="E44" t="n">
-        <v>569.3990726332845</v>
+        <v>1139.410174070801</v>
       </c>
       <c r="F44" t="n">
-        <v>141.5316430424922</v>
+        <v>711.5427444800089</v>
       </c>
       <c r="G44" t="n">
-        <v>141.5316430424922</v>
+        <v>310.1449131032728</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K44" t="n">
-        <v>750.6905954094008</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L44" t="n">
-        <v>750.6905954094008</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M44" t="n">
-        <v>750.6905954094008</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="N44" t="n">
-        <v>750.6905954094008</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="O44" t="n">
-        <v>1445.254791162024</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="P44" t="n">
-        <v>2139.818986914647</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="Q44" t="n">
-        <v>2686.317772873242</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.668109022718</v>
+        <v>4468.437738815722</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.668109022718</v>
+        <v>4468.437738815722</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.668109022718</v>
+        <v>4105.820788749548</v>
       </c>
       <c r="W44" t="n">
-        <v>2722.668109022718</v>
+        <v>3700.965334160582</v>
       </c>
       <c r="X44" t="n">
-        <v>2303.525645602029</v>
+        <v>3281.822870739893</v>
       </c>
       <c r="Y44" t="n">
-        <v>2303.525645602029</v>
+        <v>2873.536747039546</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.418244693367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>1009.26578612773</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>836.7040746109545</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>670.8260818124772</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>501.0680780632145</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>324.3610240249707</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>158.7697490507983</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2358.796516883403</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2358.796516883403</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1201.084404846717</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8055,13 +8057,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O6" t="n">
-        <v>200.3264657984394</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P9" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097206</v>
+        <v>1052.879867238116</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>383.1431497629751</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>158.5238301810327</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>852.0369646460708</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097206</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>651.9316575406125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>713.239591328108</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9012,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>363.2306375284825</v>
       </c>
       <c r="O15" t="n">
-        <v>432.2592192869796</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>753.9218057523913</v>
+        <v>263.087760665012</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9477,13 +9479,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>825.7100220597506</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>507.105909296742</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9884,7 +9886,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,13 +10120,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>167.2490741169777</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,16 +10193,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="N30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10358,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>167.2490741169777</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,10 +10591,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>655.9981329904112</v>
+        <v>497.8733301746876</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10826,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>406.6119088543383</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.5821297690063</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>664.5938549921409</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>406.6119088543383</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>135.646712671486</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>161.9268490649753</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>194.0192887222355</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800139</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>236.8367164334836</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>144.1344859240888</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>2.446659489829585</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>34.67467827192209</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>52.01701577190886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>212.1323395461472</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>122.448028004996</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>96.5625395927554</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>96.56253959275548</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>48.19697732171672</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>227.4957845487776</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>125.2343690875804</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>77.73307607587168</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>202.1002835384898</v>
+        <v>72.44040884377239</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>74.153499331904</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>90.22000922290047</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>366680.9750403708</v>
+        <v>519527.4184492616</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366680.9750403708</v>
+        <v>519527.4184492617</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>554002.7640730487</v>
+        <v>554002.7640730485</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366680.9750403708</v>
+        <v>519527.4184492617</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>366680.9750403707</v>
+        <v>519527.4184492617</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>415514.1729150666</v>
+      </c>
+      <c r="C2" t="n">
         <v>415514.1729150665</v>
-      </c>
-      <c r="C2" t="n">
-        <v>415514.1729150667</v>
       </c>
       <c r="D2" t="n">
         <v>415514.1729150666</v>
       </c>
       <c r="E2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="F2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="G2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="J2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="K2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="L2" t="n">
-        <v>408314.6277064479</v>
+        <v>408314.627706448</v>
       </c>
       <c r="M2" t="n">
         <v>408314.627706448</v>
@@ -26350,10 +26352,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
       <c r="P2" t="n">
-        <v>270253.5357583608</v>
+        <v>382905.3900161257</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045623</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260788</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>27218.28317125581</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="F4" t="n">
-        <v>27218.28317125581</v>
+        <v>38563.88892013471</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991273</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26442,7 +26444,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26453,13 @@
         <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991273</v>
       </c>
       <c r="O4" t="n">
-        <v>27218.28317125587</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="P4" t="n">
-        <v>27218.28317125586</v>
+        <v>38563.8889201347</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21781.79746964054</v>
+        <v>-21781.79746964049</v>
       </c>
       <c r="C6" t="n">
-        <v>201917.9011144044</v>
+        <v>201917.9011144043</v>
       </c>
       <c r="D6" t="n">
         <v>201917.9011144044</v>
       </c>
       <c r="E6" t="n">
-        <v>190208.1922474977</v>
+        <v>122410.4720419144</v>
       </c>
       <c r="F6" t="n">
-        <v>200379.188847954</v>
+        <v>273076.2256136622</v>
       </c>
       <c r="G6" t="n">
-        <v>131413.9602246336</v>
+        <v>260383.627998135</v>
       </c>
       <c r="H6" t="n">
         <v>289473.4371707428</v>
       </c>
       <c r="I6" t="n">
-        <v>289473.4371707428</v>
+        <v>289473.4371707427</v>
       </c>
       <c r="J6" t="n">
         <v>114822.0884530367</v>
@@ -26552,16 +26554,16 @@
         <v>289473.4371707427</v>
       </c>
       <c r="M6" t="n">
-        <v>280984.355467402</v>
+        <v>163722.348835052</v>
       </c>
       <c r="N6" t="n">
         <v>289473.4371707427</v>
       </c>
       <c r="O6" t="n">
-        <v>200379.1888479539</v>
+        <v>273076.2256136622</v>
       </c>
       <c r="P6" t="n">
-        <v>200379.1888479539</v>
+        <v>273076.2256136622</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0647891018637</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990746</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.0647891018637</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990746</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>33.35105993462375</v>
+        <v>113.5502680755938</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.70948359397306</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>102.9863699957349</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>30.32229151846121</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>154.5594875100822</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.21302026266349</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>212.868358141901</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>370.2548715022041</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>55.87832135360748</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>117.7661826744367</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.744950695686836e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28156,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28536,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-2.315697059394741e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O6" t="n">
-        <v>200.3264657984394</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35112,7 +35114,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P9" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,25 +35412,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097206</v>
+        <v>1052.879867238116</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>383.1431497629751</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>158.5238301810327</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>852.0369646460708</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097206</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>651.9316575406125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>713.239591328108</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>363.2306375284825</v>
       </c>
       <c r="O15" t="n">
-        <v>432.2592192869796</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>753.9218057523913</v>
+        <v>263.087760665012</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,13 +36199,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>825.7100220597506</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>507.105909296742</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36446,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,7 +36606,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,13 +36840,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>167.2490741169777</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="N30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,10 +37080,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>167.2490741169777</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638363</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,10 +37311,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>655.9981329904112</v>
+        <v>497.8733301746876</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>406.6119088543383</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.5821297690063</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>664.5938549921409</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>406.6119088543383</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1688323.53690612</v>
+        <v>1687717.449277223</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074004</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797161</v>
+        <v>606553.2040797162</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>310.8775726044418</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>104.3162867800979</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -822,16 +822,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>109.1426757626845</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -876,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>122.1591039832979</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>102.8074922626027</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>131.6793655011337</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1116,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>125.1716544454846</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1138,22 +1138,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>428.2210218768698</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>184.5154949210677</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.882488064989</v>
+        <v>153.2006427344288</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1372,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>21.87520451048285</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>388.71905148859</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1587,16 +1587,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>139.9514671241872</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>81.01098805494637</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1615,10 +1615,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>235.4177086710523</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695694</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>219.7703493858182</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2052,16 +2052,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>46.22530271040065</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436949</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704886</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>240.9739924675036</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>35.75633396116255</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3012,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.5829343862774</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>122.6391170798906</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>205.9320983586117</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3757,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>175.0349193669808</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>233.7564114779313</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>90.32734763589843</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170481</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>213.7984441674435</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>165.3841133224069</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>64.34965323462522</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>119.9348501475804</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.95961582883</v>
+        <v>1156.295315593938</v>
       </c>
       <c r="C2" t="n">
-        <v>1637.857547052657</v>
+        <v>718.1528427773612</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>686.2834619922098</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>656.5491211909091</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2481.038965968701</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2481.038965968701</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2118.422015902528</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W2" t="n">
-        <v>2117.606965353965</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X2" t="n">
-        <v>2102.50490597368</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y2" t="n">
-        <v>1694.218782273333</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>392.2084670965934</v>
       </c>
       <c r="G4" t="n">
         <v>281.9633400635787</v>
@@ -4488,13 +4488,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4524,16 +4524,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1693.062784852648</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1447.671030186061</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1515.838921374201</v>
+        <v>1456.941072251152</v>
       </c>
       <c r="C5" t="n">
-        <v>1077.696448557624</v>
+        <v>1018.798599434575</v>
       </c>
       <c r="D5" t="n">
-        <v>1045.827067772473</v>
+        <v>582.8888146090196</v>
       </c>
       <c r="E5" t="n">
-        <v>1016.092726971172</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F5" t="n">
-        <v>588.22529738038</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>186.8274660036438</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
         <v>53.81800590148855</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.341725488303</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.526674939741</v>
+        <v>2306.628825816691</v>
       </c>
       <c r="X5" t="n">
-        <v>1946.384211519051</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y5" t="n">
-        <v>1538.098087818705</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4725,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4752,19 +4752,19 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1551.697666545389</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
         <v>1551.697666545389</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1052.900668210748</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.798599434575</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D8" t="n">
-        <v>986.9292186494235</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>957.1948778481228</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>529.3274482573306</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4810,22 +4810,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4986,19 +4986,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="U10" t="n">
-        <v>2084.044929341546</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1797.089421211977</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
         <v>1797.089421211977</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055491</v>
+        <v>2188.014873871655</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1749.872401055078</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2405.726147295684</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>3562.773982506235</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N11" t="n">
-        <v>4688.504965942682</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>4688.504965942682</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P11" t="n">
-        <v>4688.504965942682</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942682</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4468.437738815722</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>3846.598486066565</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3441.743031477598</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>3022.600568056909</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3531.436949455166</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>3424.980488291808</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>3329.890199438361</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>3235.769784765315</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>3152.385946381477</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>3067.000856647661</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>3025.265204463873</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I12" t="n">
-        <v>3025.265204463873</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>3025.265204463873</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>3025.265204463873</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>3025.265204463873</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>3025.265204463873</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>3025.265204463873</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>3868.781799463484</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>4688.504965942682</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>4688.504965942682</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>4688.504965942682</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>4625.049528391065</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>4494.870884721667</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>4318.534337721635</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>4119.416819783634</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>3934.094065516828</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>3779.226629755708</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>3652.740850534929</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5181,13 +5181,13 @@
         <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154826</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>664.6305518662199</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279761</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
         <v>322.3322228538038</v>
@@ -5196,7 +5196,7 @@
         <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5235,13 +5235,13 @@
         <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1864.092953749323</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="X13" t="n">
-        <v>1364.646878649722</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
         <v>1364.646878649722</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2324.430227182453</v>
+        <v>2104.363000055492</v>
       </c>
       <c r="C14" t="n">
-        <v>1886.287754365876</v>
+        <v>1666.220527238915</v>
       </c>
       <c r="D14" t="n">
-        <v>1450.377969540321</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716547</v>
       </c>
       <c r="F14" t="n">
         <v>784.7148746252335</v>
@@ -5293,13 +5293,13 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397636</v>
+        <v>3313.696305150692</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231032</v>
+        <v>4142.006179984089</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942683</v>
@@ -5308,22 +5308,22 @@
         <v>4604.85309212652</v>
       </c>
       <c r="T14" t="n">
-        <v>4604.85309212652</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U14" t="n">
-        <v>4345.630789443537</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V14" t="n">
-        <v>3983.013839377363</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.158384788397</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X14" t="n">
-        <v>3159.015921367708</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y14" t="n">
-        <v>2750.729797667361</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1280.238751550125</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154828</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E16" t="n">
-        <v>664.63055186622</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279762</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885367</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2464.550262800109</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="U16" t="n">
-        <v>2396.440216545479</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V16" t="n">
-        <v>2109.48470841591</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002202</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5521,22 +5521,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5676,37 +5676,37 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="V19" t="n">
         <v>2117.975449367836</v>
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,34 +5761,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657332</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405572</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272077</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142507</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728799</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062211</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.47767037632</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1039.550377927472</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2114.610344180331</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3271.658179390882</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>790.3368563937634</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>620.5788526445006</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>443.8717986062568</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>278.2805236320845</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>138.378349322459</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6417,19 +6417,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3572.656769371182</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3572.656769371182</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4400.966644204577</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4947.465430163173</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1748.411126173566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1503.019371506979</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6709,19 +6709,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6782,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7019,25 +7019,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C37" t="n">
-        <v>666.4589603534698</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>500.5809675549925</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>330.8229638057298</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,7 +7162,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7180,43 +7180,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2230.862362770219</v>
+        <v>2408.082100998615</v>
       </c>
       <c r="C41" t="n">
-        <v>1792.719889953642</v>
+        <v>1969.939628182039</v>
       </c>
       <c r="D41" t="n">
-        <v>1356.810105128087</v>
+        <v>1534.029843356483</v>
       </c>
       <c r="E41" t="n">
-        <v>923.035360286382</v>
+        <v>1100.255098514778</v>
       </c>
       <c r="F41" t="n">
-        <v>495.1679306955898</v>
+        <v>672.387668923986</v>
       </c>
       <c r="G41" t="n">
-        <v>93.77009931885367</v>
+        <v>270.9898375472499</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885367</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>3160.228192740442</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>4285.959176176888</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>4688.504965942683</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>4688.504965942683</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.85309212652</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999559</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316575</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V41" t="n">
-        <v>3889.44597496513</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W41" t="n">
-        <v>3484.590520376163</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X41" t="n">
-        <v>3065.448056955473</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y41" t="n">
-        <v>2657.161933255127</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,46 +7484,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8461154418378</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D43" t="n">
-        <v>615.9681226433605</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E43" t="n">
-        <v>524.7283775565944</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F43" t="n">
-        <v>348.0213235183506</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G43" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2447.237176554638</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>2009.094703738062</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1573.184918912506</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>1139.410174070801</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>711.5427444800089</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>310.1449131032728</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171366</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885367</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>3160.228192740442</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>4285.959176176888</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>4285.959176176888</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>4688.504965942683</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942683</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815722</v>
+        <v>4437.798432204896</v>
       </c>
       <c r="U44" t="n">
-        <v>4468.437738815722</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="V44" t="n">
-        <v>4105.820788749548</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3700.965334160582</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>3281.822870739893</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2873.536747039546</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1009.26578612773</v>
+        <v>841.3589921580855</v>
       </c>
       <c r="C46" t="n">
-        <v>836.7040746109545</v>
+        <v>668.7972806413104</v>
       </c>
       <c r="D46" t="n">
-        <v>670.8260818124772</v>
+        <v>668.7972806413104</v>
       </c>
       <c r="E46" t="n">
-        <v>501.0680780632145</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="F46" t="n">
-        <v>324.3610240249707</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G46" t="n">
-        <v>158.7697490507983</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885367</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2589.283395941269</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2343.403949519724</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2064.97094877283</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1778.01544064326</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1505.989036229552</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.084404846717</v>
+        <v>1260.597281562964</v>
       </c>
       <c r="Y46" t="n">
-        <v>1201.084404846717</v>
+        <v>1033.177610877073</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8002,7 +8002,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>20.13097499434645</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8458,25 +8458,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,25 +8695,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1052.879867238116</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>809.0782778761413</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460708</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>713.239591328108</v>
+        <v>884.1022829978619</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>363.2306375284825</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>263.087760665012</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9479,13 +9479,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>167.2490741169777</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,13 +10357,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>167.2490741169777</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>497.8733301746876</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,19 +11068,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>406.6119088543383</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>664.5938549921409</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,19 +11305,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>406.6119088543383</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>411.8858435779281</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>42.83163548870994</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>161.9268490649753</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>194.0192887222355</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.8858435779274</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>23.65030257151105</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>229.4233680290251</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>111.4236523045789</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.67467827192209</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>52.01701577190886</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.5625395927554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>48.19697732171672</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>69.71657238081406</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>111.2039336442351</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>125.2343690875804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>77.73307607587168</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>72.44040884377239</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>52.48244153328483</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>74.153499331904</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>37.71410486740294</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519527.4184492616</v>
+        <v>519527.4184492617</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>554002.7640730486</v>
+        <v>554002.7640730488</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>554002.7640730485</v>
+        <v>554002.7640730486</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519527.4184492617</v>
+        <v>519527.4184492616</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519527.4184492617</v>
+        <v>519527.4184492616</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150665</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
         <v>382905.3900161257</v>
       </c>
       <c r="F2" t="n">
-        <v>382905.3900161257</v>
+        <v>382905.3900161256</v>
       </c>
       <c r="G2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="J2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="K2" t="n">
         <v>408314.627706448</v>
@@ -26349,13 +26349,13 @@
         <v>408314.627706448</v>
       </c>
       <c r="N2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="O2" t="n">
-        <v>382905.3900161257</v>
+        <v>382905.3900161256</v>
       </c>
       <c r="P2" t="n">
-        <v>382905.3900161257</v>
+        <v>382905.3900161256</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260788</v>
+        <v>29089.80917260783</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>38563.88892013469</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="F4" t="n">
-        <v>38563.88892013471</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26450,16 +26450,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>38563.8889201347</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="P4" t="n">
-        <v>38563.8889201347</v>
+        <v>38563.88892013469</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="F5" t="n">
         <v>71265.27548232878</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21781.79746964049</v>
+        <v>-21781.79746964054</v>
       </c>
       <c r="C6" t="n">
         <v>201917.9011144043</v>
       </c>
       <c r="D6" t="n">
-        <v>201917.9011144044</v>
+        <v>201917.9011144043</v>
       </c>
       <c r="E6" t="n">
-        <v>122410.4720419144</v>
+        <v>122305.2824196596</v>
       </c>
       <c r="F6" t="n">
-        <v>273076.2256136622</v>
+        <v>272971.0359914075</v>
       </c>
       <c r="G6" t="n">
-        <v>260383.627998135</v>
+        <v>260360.4036587523</v>
       </c>
       <c r="H6" t="n">
-        <v>289473.4371707428</v>
+        <v>289450.2128313601</v>
       </c>
       <c r="I6" t="n">
-        <v>289473.4371707427</v>
+        <v>289450.2128313601</v>
       </c>
       <c r="J6" t="n">
-        <v>114822.0884530367</v>
+        <v>114798.864113654</v>
       </c>
       <c r="K6" t="n">
-        <v>289473.4371707427</v>
+        <v>289450.2128313601</v>
       </c>
       <c r="L6" t="n">
-        <v>289473.4371707427</v>
+        <v>289450.2128313601</v>
       </c>
       <c r="M6" t="n">
-        <v>163722.348835052</v>
+        <v>163699.1244956694</v>
       </c>
       <c r="N6" t="n">
-        <v>289473.4371707427</v>
+        <v>289450.21283136</v>
       </c>
       <c r="O6" t="n">
-        <v>273076.2256136622</v>
+        <v>272971.0359914075</v>
       </c>
       <c r="P6" t="n">
-        <v>273076.2256136622</v>
+        <v>272971.0359914075</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990746</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990746</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>112.7111826904425</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>113.5502680755938</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>54.79268646174607</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>326.6295051306851</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>154.5594875100822</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>144.1344859240868</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>212.868358141901</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>117.7661826744367</v>
+        <v>122.4480280049969</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34722,7 +34722,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>20.13097499434645</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35178,25 +35178,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,25 +35415,25 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1052.879867238116</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>809.0782778761413</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460708</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638367</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>713.239591328108</v>
+        <v>884.1022829978619</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>363.2306375284825</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>263.087760665012</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961003</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36199,13 +36199,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>167.2490741169777</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>167.2490741169777</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>497.8733301746876</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>406.6119088543383</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>664.5938549921409</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>406.6119088543383</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
